--- a/data/input/eurobank/202508.xlsx
+++ b/data/input/eurobank/202508.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/eurobank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_C6EF27AA010419F94213A41714B3E423E59D63E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{056479C6-EAEA-4806-B55D-9F5BADD12EFA}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_C6EF27AA010419F94213A41714B3E423E59D63E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3154A90-49AB-41B3-BD8B-55387F9284B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -5614,8 +5614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ926"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5625,6 +5625,7 @@
     <col min="9" max="9" width="26.85546875" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="40.85546875" customWidth="1"/>
+    <col min="20" max="20" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.5703125" style="10"/>
     <col min="42" max="42" width="19.5703125" style="11"/>
   </cols>
